--- a/資料集/上身.xlsx
+++ b/資料集/上身.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/資料集/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38A023-0D56-CD4B-88D7-A9A62031EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A72DCF-CB3E-A741-BBC1-37D39AE42BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7564" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7588" uniqueCount="1930">
   <si>
     <t>URL</t>
   </si>
@@ -7562,12 +7562,31 @@
     <t>_Fex_Model_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW5762_OK/1-Main/All/IW5762_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW5762_OK/1-Main/All/IW5762_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW5762_OK/1-Main/All/IW5762_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW5762_OK/1-Main/All/IW5762_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW5762_OK/1-Main/All/IW5762_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW5762_OK/1-Main/All/IW5762_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7682,6 +7701,13 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7710,7 +7736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7745,6 +7771,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7966,9 +7996,9 @@
   </sheetPr>
   <dimension ref="A1:E2406"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1844" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1850" sqref="I1850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -41568,39 +41598,111 @@
       </c>
     </row>
     <row r="1867" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1867" s="4" t="str" cm="1">
+      <c r="A1867" s="16" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1867" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1867" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1867" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1867" s="4" cm="1">
         <f t="array" ref="E1867">IF(C1867="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1867)*(工作表2!B:B=D1867), 0)),""))</f>
-        <v/>
+        <v>24</v>
       </c>
     </row>
     <row r="1868" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1868" s="4" t="str" cm="1">
+      <c r="A1868" s="19" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1868" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1868" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1868" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1868" s="4" cm="1">
         <f t="array" ref="E1868">IF(C1868="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1868)*(工作表2!B:B=D1868), 0)),""))</f>
-        <v/>
+        <v>25</v>
       </c>
     </row>
     <row r="1869" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1869" s="4" t="str" cm="1">
+      <c r="A1869" s="19" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1869" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1869" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1869" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1869" s="4" cm="1">
         <f t="array" ref="E1869">IF(C1869="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1869)*(工作表2!B:B=D1869), 0)),""))</f>
-        <v/>
+        <v>26</v>
       </c>
     </row>
     <row r="1870" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1870" s="4" t="str" cm="1">
+      <c r="A1870" s="19" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1870" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1870" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1870" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1870" s="4" cm="1">
         <f t="array" ref="E1870">IF(C1870="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1870)*(工作表2!B:B=D1870), 0)),""))</f>
-        <v/>
+        <v>27</v>
       </c>
     </row>
     <row r="1871" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1871" s="4" t="str" cm="1">
+      <c r="A1871" s="19" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1871" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1871" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1871" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1871" s="4" cm="1">
         <f t="array" ref="E1871">IF(C1871="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1871)*(工作表2!B:B=D1871), 0)),""))</f>
-        <v/>
+        <v>34</v>
       </c>
     </row>
     <row r="1872" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1872" s="4" t="str" cm="1">
+      <c r="A1872" s="19" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1872" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1872" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1872" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1872" s="4" cm="1">
         <f t="array" ref="E1872">IF(C1872="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1872)*(工作表2!B:B=D1872), 0)),""))</f>
-        <v/>
+        <v>34</v>
       </c>
     </row>
     <row r="1873" spans="5:5" ht="15.75" customHeight="1">
@@ -44930,9 +45032,15 @@
     <hyperlink ref="A1655" r:id="rId405" xr:uid="{F88BF906-E068-7048-9BF7-F0019C3FCE73}"/>
     <hyperlink ref="A1656" r:id="rId406" xr:uid="{8E8093A5-621A-DF4D-BF2C-8783F3991764}"/>
     <hyperlink ref="A397" r:id="rId407" xr:uid="{33038C5A-B6BF-4922-A399-FCA19AEB9218}"/>
+    <hyperlink ref="A1867" r:id="rId408" xr:uid="{BBA1C26F-6C13-8944-B52E-1616F1196B76}"/>
+    <hyperlink ref="A1868" r:id="rId409" xr:uid="{51B67934-FE5D-114B-9512-2F54C1AF1A70}"/>
+    <hyperlink ref="A1869" r:id="rId410" xr:uid="{33C996AC-F6A7-6141-8716-758E46E7FAF3}"/>
+    <hyperlink ref="A1870" r:id="rId411" xr:uid="{E75E7EF9-2CF4-CF46-8918-652155B96D7C}"/>
+    <hyperlink ref="A1871" r:id="rId412" xr:uid="{0539CA5A-49CD-6A4A-8868-E23D0D0D5806}"/>
+    <hyperlink ref="A1872" r:id="rId413" xr:uid="{5FE13BF2-BDD5-7741-BA9F-CD2981BCA68A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId408"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId414"/>
 </worksheet>
 </file>
 
@@ -44940,7 +45048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>

--- a/資料集/上身.xlsx
+++ b/資料集/上身.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\資料集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3A40E-9A2E-412D-8191-EEA21FCEAC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D859E-0120-41BF-8CE9-D8A0D693A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -8859,8 +8859,8 @@
   <dimension ref="A1:E2346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1576" sqref="F1576"/>
+      <pane ySplit="1" topLeftCell="A2117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2132" sqref="F2132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="20" customHeight="1"/>

--- a/資料集/上身.xlsx
+++ b/資料集/上身.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\資料集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D859E-0120-41BF-8CE9-D8A0D693A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B7F66-1F02-4A7F-A890-DBFDA48EFF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8860,7 +8860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2132" sqref="F2132"/>
+      <selection pane="bottomLeft" activeCell="K2125" sqref="K2125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="20" customHeight="1"/>
@@ -48352,7 +48352,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2261" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A108" r:id="rId1" xr:uid="{DF9A9C0D-AB7A-4089-BCB1-F2D096F80077}"/>
